--- a/Datasets/CNGMD/P1005.xlsx
+++ b/Datasets/CNGMD/P1005.xlsx
@@ -20,7 +20,7 @@
     <t>P6_3_2_1_3</t>
   </si>
   <si>
-    <t>ubic_geo</t>
+    <t>CVE_MUN</t>
   </si>
   <si>
     <t>01001</t>
@@ -6989,9 +6989,7 @@
     <t>Municipal</t>
   </si>
   <si>
-    <t>para p1: ¿Dispone de servicio de recoleccion? (1: Si 2: No)
-para p10: ¿Al menos una fracción de los RSU es enviada a plantas de tratamiento? (1: Si 2: No)
-para p11: ¿A cuantos sitios de disposición final son remitidos los residuos?</t>
+    <t>P6_3_2_1_3: Numero de vehiculos utilizados para la recolección de Residuos Solidos Urbanos</t>
   </si>
   <si>
     <t>INEGI</t>
@@ -7000,7 +6998,7 @@
     <t>http://www.beta.inegi.org.mx/contenidos/proyectos/censosgobierno/municipal/cngmd/2015/datosabiertos/</t>
   </si>
   <si>
-    <t>"P1003.xlsx" disponible en 
+    <t>"P1005.xlsx" disponible en 
 https://github.com/INECC-PCCS/01_Dmine/tree/master/Datasets/CNGMD/2015</t>
   </si>
 </sst>
